--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/2 CUENTAS POR COBRAR/2 SUMARIA CUENTAS POR COBRAR.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/2 CUENTAS POR COBRAR/2 SUMARIA CUENTAS POR COBRAR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\5 PRUEBAS SUSTANTIVAS\2 CUENTAS POR COBRAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\2 CUENTAS POR COBRAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F86ACB1-6015-4E9C-9232-7D7F4BD2BB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC293052-4A53-4593-8548-1BAEE736AB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
-  <si>
-    <t xml:space="preserve">                                  AUDITORIA FINANCIERA </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Elaboro</t>
   </si>
@@ -123,18 +120,6 @@
     <t>Haber</t>
   </si>
   <si>
-    <t xml:space="preserve">      ENTIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     CEDULA SUMARIA CUENTAS POR COBRAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                (Cifras expresadas en quetzales)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                      DEL 01 DE ENERO AL 31  DE DICIEMBRE DE 2024</t>
-  </si>
-  <si>
     <t>B-1</t>
   </si>
   <si>
@@ -145,6 +130,24 @@
   </si>
   <si>
     <t>Al 31/12/AAAA</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDITORIA FINANCIERA </t>
+  </si>
+  <si>
+    <t>CEDULA SUMARIA CUENTAS POR COBRAR</t>
+  </si>
+  <si>
+    <t>(Cifras expresadas en quetzales)</t>
+  </si>
+  <si>
+    <t>DEL 01 DE ENERO AL 31 DE DICIEMBRE DE 2023</t>
+  </si>
+  <si>
+    <t>Logo</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,13 +223,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -264,18 +260,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -409,127 +399,119 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,176 +535,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>742949</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="CuadroTexto 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="742949" y="190501"/>
-          <a:ext cx="1171575" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-GT" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-GT" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="CuadroTexto 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11811000" y="2371725"/>
-          <a:ext cx="3371850" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100"/>
-            <a:t>La referencia </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>B  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100"/>
-            <a:t>al hacer clic es un vinculo a este papel que debe abrir en sistema </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1152,7 +964,7 @@
   <dimension ref="B2:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,471 +981,463 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
+      <c r="B3" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="40" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="49"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="49"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="35" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="40"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="39" t="s">
+      <c r="F12" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="G12" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="38" t="s">
+      <c r="H12" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="2:11" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="46">
+      <c r="D14" s="26"/>
+      <c r="E14" s="36">
         <f>SUBTOTAL(9,E12:E13)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="36">
         <f t="shared" ref="F14:J14" si="0">SUBTOTAL(9,F12:F13)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D36" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="B12:C12"/>

--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/2 CUENTAS POR COBRAR/2 SUMARIA CUENTAS POR COBRAR.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/2 CUENTAS POR COBRAR/2 SUMARIA CUENTAS POR COBRAR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\2 CUENTAS POR COBRAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\Desarrollos-Clientes\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\2 CUENTAS POR COBRAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC293052-4A53-4593-8548-1BAEE736AB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6B4D7E-4C23-4619-850A-D8B8F0573C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,10 +144,10 @@
     <t>(Cifras expresadas en quetzales)</t>
   </si>
   <si>
-    <t>DEL 01 DE ENERO AL 31 DE DICIEMBRE DE 2023</t>
-  </si>
-  <si>
     <t>Logo</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
@@ -481,6 +481,18 @@
     <xf numFmtId="43" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -500,18 +512,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,7 +964,7 @@
   <dimension ref="B2:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,8 +992,8 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
-        <v>33</v>
+      <c r="B3" s="39" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1005,7 +1005,7 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1018,27 +1018,27 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="6"/>
       <c r="I5" s="8"/>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="3"/>
       <c r="I6" s="9" t="s">
         <v>0</v>
@@ -1048,12 +1048,12 @@
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
+      <c r="D7" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="3"/>
       <c r="I7" s="9" t="s">
         <v>1</v>
@@ -1063,12 +1063,12 @@
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="3"/>
       <c r="I8" s="9" t="s">
         <v>2</v>
@@ -1078,12 +1078,12 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="3"/>
       <c r="I9" s="9" t="s">
         <v>1</v>
@@ -1092,18 +1092,18 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28" t="s">
         <v>3</v>
@@ -1114,19 +1114,19 @@
       <c r="G11" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="40"/>
+      <c r="I11" s="44"/>
       <c r="J11" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="33" t="s">
         <v>21</v>
       </c>
@@ -1151,8 +1151,8 @@
       <c r="K12"/>
     </row>
     <row r="13" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="35"/>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
@@ -1432,17 +1432,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
